--- a/PANAMÁ/Género/Empoderamiento económico mujeres Unicef 2019 Panamá.xlsx
+++ b/PANAMÁ/Género/Empoderamiento económico mujeres Unicef 2019 Panamá.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C942621-CA0D-49A1-9ABF-7374033BCA59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E64639-C59E-4848-B845-A1FB7A317B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9983B74-074E-49B7-94F8-AEC375C41383}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>Índice de Género e Instituciones Sociales (SIGI) 2019</t>
   </si>
@@ -551,76 +551,85 @@
     <t>Categoría</t>
   </si>
   <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos legales sobre igualdad de género en el empleo </t>
+  </si>
+  <si>
+    <t>Índice de Género e Instituciones Sociales (SIGI)</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Zona</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Urbano</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2014−2017*</t>
+  </si>
+  <si>
+    <t>2013−2018*</t>
+  </si>
+  <si>
+    <t>2010−2017*</t>
+  </si>
+  <si>
+    <t>2010−2018*</t>
+  </si>
+  <si>
     <t>Variable</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
-    <t>Demanda de planificación familiar satisfecha con métodos modernos (%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2013−2018*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcos legales sobre igualdad de género en el empleo </t>
-  </si>
-  <si>
-    <t>Índice de Género e Instituciones Sociales (SIGI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beneficios de licencia por maternidad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beneficios de licencia por paternidad </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logro educativo 2010−2017*, Secundaria superior, </t>
-  </si>
-  <si>
-    <t>hombres</t>
-  </si>
-  <si>
-    <t>Logro educativo 2010−2017*, Secundaria superior,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> mujeres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa de participación de la fuerza laboral 2010−2018*, </t>
-  </si>
-  <si>
-    <t>hombre, rural</t>
-  </si>
-  <si>
-    <t>hombre, urbano</t>
-  </si>
-  <si>
-    <t>mujer, rural</t>
-  </si>
-  <si>
-    <t>hombre, total</t>
-  </si>
-  <si>
-    <t>mujer, urbano</t>
-  </si>
-  <si>
-    <t>mujer, total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa de desempleo 2010−2018*, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propiedad de teléfono móvil 2014−2017*, </t>
-  </si>
-  <si>
-    <t>hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
-  </si>
-  <si>
-    <t>Inclusión financiera 2014−2017*,</t>
+    <t xml:space="preserve">Beneficios de licencia por </t>
+  </si>
+  <si>
+    <t xml:space="preserve">maternidad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficios de licencia por  </t>
+  </si>
+  <si>
+    <t>paternidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logro educativo </t>
+  </si>
+  <si>
+    <t>Secundaria superior</t>
+  </si>
+  <si>
+    <t>Tasa de participación de la fuerza laboral</t>
+  </si>
+  <si>
+    <t>Tasa de desempleo</t>
+  </si>
+  <si>
+    <t>Propiedad de teléfono móvil</t>
+  </si>
+  <si>
+    <t>Inclusión financiera</t>
   </si>
 </sst>
 </file>
@@ -713,7 +722,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -753,12 +762,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,7 +779,7 @@
     <cellStyle name="Normal 3 2" xfId="2" xr:uid="{886149E4-4282-45F6-97A1-B680D9F80B17}"/>
     <cellStyle name="Normal 5" xfId="3" xr:uid="{D660EEEF-23F7-4B30-884B-149FC0276F2A}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <font>
         <b val="0"/>
@@ -822,6 +835,66 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -857,11 +930,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A07DC280-73F5-4269-A177-A6CDDC719508}" name="Tabla1" displayName="Tabla1" ref="A1:C24" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:C24" xr:uid="{D609FAC4-33AF-48B0-8B40-C0AA92E28A32}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2D793CD2-F4DE-4286-B4E3-C7B9529A6F69}" name="Categoría" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{3A9199EE-C2D8-4A65-A5E6-6CC2BC7A0708}" name="Variable" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A07DC280-73F5-4269-A177-A6CDDC719508}" name="Tabla1" displayName="Tabla1" ref="A1:F24" totalsRowShown="0" dataDxfId="6">
+  <autoFilter ref="A1:F24" xr:uid="{D609FAC4-33AF-48B0-8B40-C0AA92E28A32}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{2D793CD2-F4DE-4286-B4E3-C7B9529A6F69}" name="Categoría" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{63CE21D1-F303-4FEA-80A3-31CF48D4EAD8}" name="Variable" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{96F758A3-2D44-4E52-86FC-A7E29C90A943}" name="Sexo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{3A9199EE-C2D8-4A65-A5E6-6CC2BC7A0708}" name="Año" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{82494AEA-14AA-4EA3-97C2-62D7C4A1F222}" name="Zona" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{0F67830B-0B7A-45EE-9682-DEDA2918FF68}" name="Cantidad" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1345,33 +1421,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7AB936-3DAF-4092-B1E3-A730F704AB7C}">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="7"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -1387,22 +1471,25 @@
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
       <c r="W1" s="6"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="17">
+        <v>59</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18">
         <v>2019</v>
       </c>
-      <c r="C2" s="16">
+      <c r="E2" s="19"/>
+      <c r="F2" s="16">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1418,242 +1505,379 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19">
+        <v>2018</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19">
+        <v>2018</v>
+      </c>
+      <c r="E5" s="19"/>
+      <c r="F5" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="17">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="17">
+        <v>40.144849999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="18">
-        <v>2018</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="18">
-        <v>2018</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="18">
-        <v>2018</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="18">
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="D8" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="17">
+        <v>45.81955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="D9" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="18">
-        <v>40.144849999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="F9" s="17">
+        <v>80.081599999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="F10" s="17">
+        <v>74.340900000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="17"/>
+      <c r="C11" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="18">
-        <v>45.81955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="F11" s="17">
+        <v>76.034499999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="17"/>
+      <c r="C12" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="17">
+        <v>44.523699999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="17">
+        <v>51.752499999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="17">
+        <v>49.736400000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1.8031999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3.6606000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="17">
+        <v>3.0834999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="17">
+        <v>3.7206000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="17">
+        <v>5.5271999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="17">
+        <v>5.0762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="18">
-        <v>80.081599999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="18">
-        <v>74.340900000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="E22" s="19"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="18">
-        <v>76.034499999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="E23" s="19"/>
+      <c r="F23" s="17">
+        <v>50.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="18">
-        <v>44.523699999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="18">
-        <v>51.752499999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="18">
-        <v>49.736400000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1.8031999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="18">
-        <v>3.6606000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="18">
-        <v>3.0834999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="18">
-        <v>3.7206000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="18">
-        <v>5.5271999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="18">
-        <v>5.0762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="18"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="18"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="18">
-        <v>50.86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="18">
+      <c r="E24" s="19"/>
+      <c r="F24" s="17">
         <v>42.34</v>
       </c>
     </row>

--- a/PANAMÁ/Género/Empoderamiento económico mujeres Unicef 2019 Panamá.xlsx
+++ b/PANAMÁ/Género/Empoderamiento económico mujeres Unicef 2019 Panamá.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E64639-C59E-4848-B845-A1FB7A317B9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F27A14D-54B1-441B-8331-3F2801347BC6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9983B74-074E-49B7-94F8-AEC375C41383}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{D9983B74-074E-49B7-94F8-AEC375C41383}"/>
   </bookViews>
   <sheets>
     <sheet name="(Original) Empoderamiento econó" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="110">
   <si>
     <t>Índice de Género e Instituciones Sociales (SIGI) 2019</t>
   </si>
@@ -605,15 +605,9 @@
     <t xml:space="preserve">Beneficios de licencia por </t>
   </si>
   <si>
-    <t xml:space="preserve">maternidad </t>
-  </si>
-  <si>
     <t xml:space="preserve">Beneficios de licencia por  </t>
   </si>
   <si>
-    <t>paternidad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logro educativo </t>
   </si>
   <si>
@@ -630,6 +624,93 @@
   </si>
   <si>
     <t>Inclusión financiera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternidad </t>
+  </si>
+  <si>
+    <t>Paternidad</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>– Datos no disponibles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x Datos refieren a años o períodos distintos a los que se especifican en el título de las columnas. Esos datos no son incluidos en los cálculos de promedios regionales o globales. Datos de años anteriores al 2000 no son mostrados. </t>
+  </si>
+  <si>
+    <t>* Datos refieren al año disponible más reciente durante el período especificado en el título de las columnas</t>
+  </si>
+  <si>
+    <t>** Excluye China</t>
+  </si>
+  <si>
+    <t>Definiciones de los indicadores</t>
+  </si>
+  <si>
+    <t>Índice de Género e Instituciones Sociales (SIGI): nivel de discriminación de género en instituciones sociales definido como discriminación en la familia, integridad física restringida, acceso restringido a recursos financieros y reproductivos, y libertades restringidas</t>
+  </si>
+  <si>
+    <t>Marcos legales sobre igualdad de género en el empleo: mide en porcentaje del logro, desde 0 a 100, con 100 como la mejor práctica, los esfuerzos del gobierno para poner marcos legales que promuevan, hagan cumplir y monitoreen la igualdad de género en el área de empleo y beneficios económicos</t>
+  </si>
+  <si>
+    <t>Beneficios de licencia por maternidad: si la ley provee de licencia por maternidad pagada por 14 semanas o más de acuerdo con los estándares de la OIT</t>
+  </si>
+  <si>
+    <t>Beneficios de licencia por  paternidad: si la ley provee de licencia por paternidad pagada de cualquier extensión de tiempo</t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos (%): porcentaje de mujeres en edad reproductiva (15-49 años) que satisfacen sus necesidades de planificación familiar con métodos modernos</t>
+  </si>
+  <si>
+    <t>Logro educativo en secundaria superior: porcentaje de la población de 25 años y más que han completado por lo menos la educación secundaria superior (ISCED 3)</t>
+  </si>
+  <si>
+    <t>Tasa de participación de la fuerza laboral: la proporción de la población trabajadora de un país que se involucra activamente en el mercado laboral, trabajando o buscando trabajo</t>
+  </si>
+  <si>
+    <t>Tasa de desempleo: el porcentaje de personas en la fuerza laboral que se encuentran sin trabajo</t>
+  </si>
+  <si>
+    <t>Propiedad de teléfono móvil: proporción de individuos que son dueños de un teléfono móvil</t>
+  </si>
+  <si>
+    <t>Inclusión financiera: porcentaje de adultos (15+ años) que reportan tener una cuenta (propia o junto a alguien más) en un banco u otro tipo de institución financiera o que indican usar personalmente un servicio de dinero móvil en los últimos 12 meses</t>
+  </si>
+  <si>
+    <t>Principales fuentes de datos:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Índice de Género e Instituciones Sociales (SIGI): Organisation for Economic Co-operation and Development (OECD). Last update: March 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcos legales sobre igualdad de género en el empleo: UN Women, World Bank Group, OECD Development Centre. Last update: July 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficios de licencia por maternidad: World Bank Women Business and the Law. Last update: February 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficios de licencia por  paternidad: World Bank Women Business and the Law. Last update: February 2019. </t>
+  </si>
+  <si>
+    <t>Demanda de planificación familiar satisfecha con métodos modernos (%): United Nations, Department of Economic and Social Affairs, Population Division, United Nations Population Fund (UNFPA), based on Demographic and Health Surveys (DHS), Multiple Indicator Cluster Surveys (MICS), Reproductive Health Surveys, other national surveys, and National Health Information Systems (HIS). Last Update: March 2019.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logro educativo en secundaria superior: UNESCO Institute for Statistics (UIS). Last update: June 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de participación de la fuerza laboral: International Labour Organization (ILO). Last update: August 2019. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de desempleo: International Labour Organization (ILO). Last update: August 2019. </t>
+  </si>
+  <si>
+    <t>Propiedad de teléfono móvil: International Telecommunication Union (ITU). Last update: March 2019.</t>
+  </si>
+  <si>
+    <t>Inclusión financiera: World Bank. Last update: July 2019.</t>
   </si>
 </sst>
 </file>
@@ -688,9 +769,12 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -722,7 +806,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -759,19 +843,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,6 +892,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -875,7 +952,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -934,11 +1010,11 @@
   <autoFilter ref="A1:F24" xr:uid="{D609FAC4-33AF-48B0-8B40-C0AA92E28A32}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2D793CD2-F4DE-4286-B4E3-C7B9529A6F69}" name="Categoría" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{63CE21D1-F303-4FEA-80A3-31CF48D4EAD8}" name="Variable" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{96F758A3-2D44-4E52-86FC-A7E29C90A943}" name="Sexo" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{3A9199EE-C2D8-4A65-A5E6-6CC2BC7A0708}" name="Año" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{82494AEA-14AA-4EA3-97C2-62D7C4A1F222}" name="Zona" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{0F67830B-0B7A-45EE-9682-DEDA2918FF68}" name="Cantidad" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{63CE21D1-F303-4FEA-80A3-31CF48D4EAD8}" name="Variable" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{96F758A3-2D44-4E52-86FC-A7E29C90A943}" name="Sexo" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3A9199EE-C2D8-4A65-A5E6-6CC2BC7A0708}" name="Año" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{82494AEA-14AA-4EA3-97C2-62D7C4A1F222}" name="Zona" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{0F67830B-0B7A-45EE-9682-DEDA2918FF68}" name="Cantidad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1244,7 +1320,7 @@
   <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,35 +1499,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7AB936-3DAF-4092-B1E3-A730F704AB7C}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="64.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="64.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" t="s">
         <v>56</v>
       </c>
       <c r="G1" s="3"/>
@@ -1476,17 +1553,16 @@
       <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18">
+      <c r="C2"/>
+      <c r="D2">
         <v>2019</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="16">
-        <v>0</v>
+      <c r="E2"/>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="5"/>
@@ -1510,374 +1586,356 @@
       <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19">
+      <c r="C3"/>
+      <c r="D3">
         <v>2018</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="17">
+      <c r="E3"/>
+      <c r="F3" s="16">
         <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5">
         <v>2018</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="17" t="s">
+      <c r="E5"/>
+      <c r="F5" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" s="16">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B7" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19">
-        <v>2018</v>
-      </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="17">
-        <v>73.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" s="16">
+        <v>40.144849999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" s="16">
+        <v>45.81955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="16">
+        <v>80.081599999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="16">
+        <v>74.340900000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="16">
+        <v>76.034499999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="16">
+        <v>44.523699999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="16">
+        <v>51.752499999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="16">
+        <v>49.736400000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C15" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="17">
-        <v>40.144849999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1.8031999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="16">
+        <v>3.6606000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="16">
+        <v>3.0834999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="17">
-        <v>45.81955</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="16">
+        <v>3.7206000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="16">
+        <v>5.5271999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="16">
+        <v>5.0762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19" t="s">
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="17">
-        <v>80.081599999999995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19" t="s">
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="17">
-        <v>74.340900000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="17">
-        <v>76.034499999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19" t="s">
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" s="16">
+        <v>50.86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="17">
-        <v>44.523699999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="17">
-        <v>51.752499999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="17">
-        <v>49.736400000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1.8031999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="17">
-        <v>3.6606000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="17">
-        <v>3.0834999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="17">
-        <v>3.7206000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="17">
-        <v>5.5271999999999997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="17">
-        <v>5.0762</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="19" t="s">
+      <c r="D24" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="17">
-        <v>50.86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="17">
+      <c r="E24"/>
+      <c r="F24" s="16">
         <v>42.34</v>
       </c>
     </row>
@@ -1891,166 +1949,247 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66AD8B85-3E01-4320-BE6B-462EB2CD2598}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L4" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L10" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L22" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>52</v>
+      </c>
+      <c r="L32" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
